--- a/data/results/validation/LCO/LCOData_comparison.xlsx
+++ b/data/results/validation/LCO/LCOData_comparison.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="210">
   <si>
     <t>SL53_LCO3_4bar_section006_0.tor</t>
   </si>
@@ -604,6 +604,60 @@
   </si>
   <si>
     <t>abs diff %</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section001.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section002.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section003.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section004.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section005.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section006.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section007.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section008.tor</t>
+  </si>
+  <si>
+    <t>SL54_LCO2_3bar_section009.tor</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section001\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section002\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section003\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section004\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section005\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section006\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section007\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section008\</t>
+  </si>
+  <si>
+    <t>D:\!battery\datasetLCO\SL54_LCO2_3bar_section009\</t>
   </si>
 </sst>
 </file>
@@ -929,15 +983,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="7" max="7" width="51.625" customWidth="1"/>
     <col min="8" max="8" width="28.75" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
@@ -985,10 +1040,10 @@
         <v>0.59906199999999998</v>
       </c>
       <c r="C2">
-        <v>1.66919</v>
+        <v>1.37314</v>
       </c>
       <c r="D2">
-        <v>1.67716</v>
+        <v>1.3515999999999999</v>
       </c>
       <c r="E2">
         <v>1.48885</v>
@@ -1001,14 +1056,14 @@
       </c>
       <c r="J2">
         <f>ABS(C2-I2)/C2 * 100</f>
-        <v>18.054265841515939</v>
+        <v>0.38670492447965438</v>
       </c>
       <c r="K2">
         <v>1.3406100000000001</v>
       </c>
       <c r="L2">
         <f>ABS(D2-K2)/D2 * 100</f>
-        <v>20.066660306708954</v>
+        <v>0.81311038768865296</v>
       </c>
       <c r="M2">
         <v>1.4803500000000001</v>
@@ -1026,10 +1081,10 @@
         <v>0.62801700000000005</v>
       </c>
       <c r="C3">
-        <v>1.56298</v>
+        <v>1.3449199999999999</v>
       </c>
       <c r="D3">
-        <v>1.5157</v>
+        <v>1.30907</v>
       </c>
       <c r="E3">
         <v>1.4436899999999999</v>
@@ -1042,14 +1097,14 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="0">ABS(C3-I3)/C3 * 100</f>
-        <v>14.265057774251751</v>
+        <v>0.36433393807809422</v>
       </c>
       <c r="K3">
         <v>1.30569</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="1">ABS(D3-K3)/D3 * 100</f>
-        <v>13.855644256779048</v>
+        <v>0.25819856844935252</v>
       </c>
       <c r="M3">
         <v>1.43963</v>
@@ -1067,10 +1122,10 @@
         <v>0.60518700000000003</v>
       </c>
       <c r="C4">
-        <v>1.4127400000000001</v>
+        <v>1.39744</v>
       </c>
       <c r="D4">
-        <v>1.33483</v>
+        <v>1.3450200000000001</v>
       </c>
       <c r="E4">
         <v>1.4577100000000001</v>
@@ -1083,14 +1138,14 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.2642099749423255</v>
+        <v>0.18319212273873065</v>
       </c>
       <c r="K4">
         <v>1.3378699999999999</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.22774435695930806</v>
+        <v>0.53159060831810767</v>
       </c>
       <c r="M4">
         <v>1.4512100000000001</v>
@@ -1108,10 +1163,10 @@
         <v>0.59402299999999997</v>
       </c>
       <c r="C5">
-        <v>1.42737</v>
+        <v>1.4135500000000001</v>
       </c>
       <c r="D5">
-        <v>1.4476</v>
+        <v>1.3750500000000001</v>
       </c>
       <c r="E5">
         <v>1.4674100000000001</v>
@@ -1124,14 +1179,14 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>1.2848805845716265</v>
+        <v>0.31976230059071692</v>
       </c>
       <c r="K5">
         <v>1.36253</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>5.8766233766233755</v>
+        <v>0.91051234500564238</v>
       </c>
       <c r="M5">
         <v>1.4595899999999999</v>
@@ -1149,10 +1204,10 @@
         <v>0.61672499999999997</v>
       </c>
       <c r="C6">
-        <v>1.32541</v>
+        <v>1.3841300000000001</v>
       </c>
       <c r="D6">
-        <v>1.3329899999999999</v>
+        <v>1.3332999999999999</v>
       </c>
       <c r="E6">
         <v>1.4420500000000001</v>
@@ -1165,14 +1220,14 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>4.1345696803253302</v>
+        <v>0.28321039208745891</v>
       </c>
       <c r="K6">
         <v>1.32907</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.29407572449905278</v>
+        <v>0.3172579314482829</v>
       </c>
       <c r="M6">
         <v>1.4363699999999999</v>
@@ -1190,10 +1245,10 @@
         <v>0.61174499999999998</v>
       </c>
       <c r="C7">
-        <v>1.3586499999999999</v>
+        <v>1.36968</v>
       </c>
       <c r="D7">
-        <v>1.3847700000000001</v>
+        <v>1.33867</v>
       </c>
       <c r="E7">
         <v>1.4380599999999999</v>
@@ -1206,14 +1261,14 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0.12512420417324646</v>
+        <v>0.92941416973306956</v>
       </c>
       <c r="K7">
         <v>1.3362400000000001</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>3.5045531026813093</v>
+        <v>0.18152345238183659</v>
       </c>
       <c r="M7">
         <v>1.4317500000000001</v>
@@ -1231,10 +1286,10 @@
         <v>0.601491</v>
       </c>
       <c r="C8">
-        <v>1.8609500000000001</v>
+        <v>1.3988499999999999</v>
       </c>
       <c r="D8">
-        <v>1.8499300000000001</v>
+        <v>1.34632</v>
       </c>
       <c r="E8">
         <v>1.44672</v>
@@ -1247,14 +1302,14 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>25.510088933071824</v>
+        <v>0.90288451227793687</v>
       </c>
       <c r="K8">
         <v>1.34229</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>27.441038309557662</v>
+        <v>0.29933448214391661</v>
       </c>
       <c r="M8">
         <v>1.43547</v>
@@ -1272,10 +1327,10 @@
         <v>0.62019500000000005</v>
       </c>
       <c r="C9">
-        <v>1.5596099999999999</v>
+        <v>1.3626400000000001</v>
       </c>
       <c r="D9">
-        <v>1.6040700000000001</v>
+        <v>1.34076</v>
       </c>
       <c r="E9">
         <v>1.4186000000000001</v>
@@ -1288,14 +1343,14 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>12.978244561140285</v>
+        <v>0.39922503375800733</v>
       </c>
       <c r="K9">
         <v>1.3371200000000001</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>16.642041806155593</v>
+        <v>0.27148781288223583</v>
       </c>
       <c r="M9">
         <v>1.41246</v>
@@ -1313,10 +1368,10 @@
         <v>0.614255</v>
       </c>
       <c r="C10">
-        <v>1.4498500000000001</v>
+        <v>1.36104</v>
       </c>
       <c r="D10">
-        <v>1.4698599999999999</v>
+        <v>1.34344</v>
       </c>
       <c r="E10">
         <v>1.4455899999999999</v>
@@ -1329,14 +1384,14 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>7.1441873297237644</v>
+        <v>1.0851995532827801</v>
       </c>
       <c r="K10">
         <v>1.3364199999999999</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>9.0784156314206808</v>
+        <v>0.522539153218605</v>
       </c>
       <c r="M10">
         <v>1.43601</v>
@@ -1354,10 +1409,10 @@
         <v>0.61152499999999999</v>
       </c>
       <c r="C11">
-        <v>1.34829</v>
+        <v>1.3718300000000001</v>
       </c>
       <c r="D11">
-        <v>1.3243499999999999</v>
+        <v>1.3222400000000001</v>
       </c>
       <c r="E11">
         <v>1.44451</v>
@@ -1370,14 +1425,14 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>1.4321844706999189</v>
+        <v>0.3083472441920776</v>
       </c>
       <c r="K11">
         <v>1.3110200000000001</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.0065315060218101</v>
+        <v>0.84856001936108472</v>
       </c>
       <c r="M11">
         <v>1.4368399999999999</v>
@@ -1395,10 +1450,10 @@
         <v>0.61995900000000004</v>
       </c>
       <c r="C12">
-        <v>1.35669</v>
+        <v>1.34829</v>
       </c>
       <c r="D12">
-        <v>1.31416</v>
+        <v>1.3243499999999999</v>
       </c>
       <c r="E12">
         <v>1.44916</v>
@@ -1411,14 +1466,14 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>1.5781055362684129</v>
+        <v>0.9649259432317947</v>
       </c>
       <c r="K12">
         <v>1.3198700000000001</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.43449808242528337</v>
+        <v>0.33827915581227153</v>
       </c>
       <c r="M12">
         <v>1.44156</v>
@@ -1436,10 +1491,10 @@
         <v>0.60372000000000003</v>
       </c>
       <c r="C13">
-        <v>1.47536</v>
+        <v>1.3737200000000001</v>
       </c>
       <c r="D13">
-        <v>1.4895700000000001</v>
+        <v>1.3365400000000001</v>
       </c>
       <c r="E13">
         <v>1.45512</v>
@@ -1452,14 +1507,14 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>7.2551783971369712</v>
+        <v>0.39309320676703197</v>
       </c>
       <c r="K13">
         <v>1.3329599999999999</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>10.51377243097002</v>
+        <v>0.26785580678469317</v>
       </c>
       <c r="M13">
         <v>1.4466000000000001</v>
@@ -1477,10 +1532,10 @@
         <v>0.59912799999999999</v>
       </c>
       <c r="C14">
-        <v>1.7074499999999999</v>
+        <v>1.36412</v>
       </c>
       <c r="D14">
-        <v>1.7952999999999999</v>
+        <v>1.3376399999999999</v>
       </c>
       <c r="E14">
         <v>1.4692499999999999</v>
@@ -1493,14 +1548,14 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>20.981580719786816</v>
+        <v>1.0937454182916493</v>
       </c>
       <c r="K14">
         <v>1.3295600000000001</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>25.942182365064326</v>
+        <v>0.60404892198198801</v>
       </c>
       <c r="M14">
         <v>1.4600900000000001</v>
@@ -1518,10 +1573,10 @@
         <v>0.580619</v>
       </c>
       <c r="C15">
-        <v>1.78542</v>
+        <v>1.4127400000000001</v>
       </c>
       <c r="D15">
-        <v>1.77423</v>
+        <v>1.33483</v>
       </c>
       <c r="E15">
         <v>1.53491</v>
@@ -1534,14 +1589,14 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>21.165328046061994</v>
+        <v>0.36878689638575807</v>
       </c>
       <c r="K15">
         <v>1.32256</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>25.45724060578392</v>
+        <v>0.91921817759564906</v>
       </c>
       <c r="M15">
         <v>1.52433</v>
@@ -1559,10 +1614,10 @@
         <v>0.61100500000000002</v>
       </c>
       <c r="C16">
-        <v>1.3389800000000001</v>
+        <v>1.35669</v>
       </c>
       <c r="D16">
-        <v>1.35544</v>
+        <v>1.31416</v>
       </c>
       <c r="E16">
         <v>1.46323</v>
@@ -1575,14 +1630,14 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.78343216478213917</v>
+        <v>0.532177579255394</v>
       </c>
       <c r="K16">
         <v>1.31111</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>3.2705247004662681</v>
+        <v>0.2320874170572835</v>
       </c>
       <c r="M16">
         <v>1.4523900000000001</v>
@@ -1600,10 +1655,10 @@
         <v>0.64104099999999997</v>
       </c>
       <c r="C17">
-        <v>1.4256899999999999</v>
+        <v>1.31311</v>
       </c>
       <c r="D17">
-        <v>1.40124</v>
+        <v>1.30324</v>
       </c>
       <c r="E17">
         <v>1.4278</v>
@@ -1616,14 +1671,14 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>8.0767908872195129</v>
+        <v>0.19571856127818393</v>
       </c>
       <c r="K17">
         <v>1.2920199999999999</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>7.7945248494190915</v>
+        <v>0.86093121758079927</v>
       </c>
       <c r="M17">
         <v>1.41856</v>
@@ -1641,10 +1696,10 @@
         <v>0.60028199999999998</v>
       </c>
       <c r="C18">
-        <v>1.62429</v>
+        <v>1.3882699999999999</v>
       </c>
       <c r="D18">
-        <v>1.6539999999999999</v>
+        <v>1.34859</v>
       </c>
       <c r="E18">
         <v>1.4687399999999999</v>
@@ -1657,14 +1712,14 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>14.95915138306583</v>
+        <v>0.50134339861841404</v>
       </c>
       <c r="K18">
         <v>1.3446400000000001</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>18.703748488512691</v>
+        <v>0.29289850881290075</v>
       </c>
       <c r="M18">
         <v>1.46085</v>
@@ -1682,10 +1737,10 @@
         <v>0.63260899999999998</v>
       </c>
       <c r="C19">
-        <v>1.3449199999999999</v>
+        <v>1.3293200000000001</v>
       </c>
       <c r="D19">
-        <v>1.30907</v>
+        <v>1.3146899999999999</v>
       </c>
       <c r="E19">
         <v>1.4179600000000001</v>
@@ -1698,14 +1753,14 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1.4268506676976935</v>
+        <v>0.27006288929678196</v>
       </c>
       <c r="K19">
         <v>1.3021100000000001</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.53167515870044035</v>
+        <v>0.9568795685674808</v>
       </c>
       <c r="M19">
         <v>1.4106799999999999</v>
@@ -1723,10 +1778,10 @@
         <v>0.52120999999999995</v>
       </c>
       <c r="C20">
-        <v>1.4135500000000001</v>
+        <v>1.43252</v>
       </c>
       <c r="D20">
-        <v>1.3750500000000001</v>
+        <v>1.4556800000000001</v>
       </c>
       <c r="E20">
         <v>1.7251099999999999</v>
@@ -1739,14 +1794,14 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>1.0031481022956286</v>
+        <v>0.33437578532935469</v>
       </c>
       <c r="K20">
         <v>1.4500299999999999</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>5.4528926220864564</v>
+        <v>0.38813475489119548</v>
       </c>
       <c r="M20">
         <v>1.71095</v>
@@ -1764,10 +1819,10 @@
         <v>0.52955099999999999</v>
       </c>
       <c r="C21">
-        <v>2.0684499999999999</v>
+        <v>1.40665</v>
       </c>
       <c r="D21">
-        <v>1.9898400000000001</v>
+        <v>1.4764200000000001</v>
       </c>
       <c r="E21">
         <v>1.6613500000000001</v>
@@ -1780,14 +1835,14 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>32.115352075225402</v>
+        <v>0.17701631535917828</v>
       </c>
       <c r="K21">
         <v>1.4738599999999999</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>25.930728098741611</v>
+        <v>0.17339239511792834</v>
       </c>
       <c r="M21">
         <v>1.6477299999999999</v>
@@ -1805,10 +1860,10 @@
         <v>0.51725100000000002</v>
       </c>
       <c r="C22">
-        <v>1.39666</v>
+        <v>1.42737</v>
       </c>
       <c r="D22">
-        <v>1.41581</v>
+        <v>1.4476</v>
       </c>
       <c r="E22">
         <v>1.7422500000000001</v>
@@ -1821,14 +1876,14 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>1.213609611501727</v>
+        <v>0.96401073302647478</v>
       </c>
       <c r="K22">
         <v>1.43604</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.4288640424915753</v>
+        <v>0.79856313898867182</v>
       </c>
       <c r="M22">
         <v>1.72929</v>
@@ -1846,10 +1901,10 @@
         <v>0.50839500000000004</v>
       </c>
       <c r="C23">
-        <v>1.6437600000000001</v>
+        <v>1.44686</v>
       </c>
       <c r="D23">
-        <v>1.64574</v>
+        <v>1.45495</v>
       </c>
       <c r="E23">
         <v>1.7605599999999999</v>
@@ -1862,14 +1917,14 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>12.810872633474485</v>
+        <v>0.94549576323902351</v>
       </c>
       <c r="K23">
         <v>1.4491499999999999</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>11.9453862700062</v>
+        <v>0.39863912849238992</v>
       </c>
       <c r="M23">
         <v>1.74078</v>
@@ -1887,10 +1942,10 @@
         <v>0.53120800000000001</v>
       </c>
       <c r="C24">
-        <v>1.43126</v>
+        <v>1.40987</v>
       </c>
       <c r="D24">
-        <v>1.3849499999999999</v>
+        <v>1.4395199999999999</v>
       </c>
       <c r="E24">
         <v>1.66899</v>
@@ -1903,14 +1958,14 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>1.732040300155099</v>
+        <v>0.24115698610509109</v>
       </c>
       <c r="K24">
         <v>1.4349000000000001</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.6066283981371288</v>
+        <v>0.32094031343780194</v>
       </c>
       <c r="M24">
         <v>1.65333</v>
@@ -1928,10 +1983,10 @@
         <v>0.51314899999999997</v>
       </c>
       <c r="C25">
-        <v>1.6022099999999999</v>
+        <v>1.41632</v>
       </c>
       <c r="D25">
-        <v>1.57311</v>
+        <v>1.4550399999999999</v>
       </c>
       <c r="E25">
         <v>1.74135</v>
@@ -1944,14 +1999,14 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>11.79807890351451</v>
+        <v>0.2217013104383134</v>
       </c>
       <c r="K25">
         <v>1.4536500000000001</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>7.5938745542269706</v>
+        <v>9.5530019793255191E-2</v>
       </c>
       <c r="M25">
         <v>1.72417</v>
@@ -1969,10 +2024,10 @@
         <v>0.49318699999999999</v>
       </c>
       <c r="C26">
-        <v>1.52403</v>
+        <v>1.47536</v>
       </c>
       <c r="D26">
-        <v>1.4738800000000001</v>
+        <v>1.4895700000000001</v>
       </c>
       <c r="E26">
         <v>1.76589</v>
@@ -1985,14 +2040,14 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>4.1357453593433142</v>
+        <v>0.97332176553518657</v>
       </c>
       <c r="K26">
         <v>1.4726699999999999</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>8.2096235785827559E-2</v>
+        <v>1.1345556100082665</v>
       </c>
       <c r="M26">
         <v>1.74552</v>
@@ -2010,10 +2065,10 @@
         <v>0.50524899999999995</v>
       </c>
       <c r="C27">
-        <v>1.41632</v>
+        <v>1.4810700000000001</v>
       </c>
       <c r="D27">
-        <v>1.4550399999999999</v>
+        <v>1.5053099999999999</v>
       </c>
       <c r="E27">
         <v>1.7321500000000001</v>
@@ -2026,14 +2081,14 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>4.1177135110709386</v>
+        <v>0.43414558393594882</v>
       </c>
       <c r="K27">
         <v>1.50118</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>3.17104684407302</v>
+        <v>0.2743620915293174</v>
       </c>
       <c r="M27">
         <v>1.71407</v>
@@ -2051,10 +2106,10 @@
         <v>0.50617400000000001</v>
       </c>
       <c r="C28">
-        <v>1.3737200000000001</v>
+        <v>1.4498500000000001</v>
       </c>
       <c r="D28">
-        <v>1.3365400000000001</v>
+        <v>1.4698599999999999</v>
       </c>
       <c r="E28">
         <v>1.7561100000000001</v>
@@ -2067,14 +2122,14 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>4.869988061613717</v>
+        <v>0.63661758112908717</v>
       </c>
       <c r="K28">
         <v>1.46637</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>9.7138880991216041</v>
+        <v>0.23743757908916449</v>
       </c>
       <c r="M28">
         <v>1.7446699999999999</v>
@@ -2092,10 +2147,10 @@
         <v>0.61622200000000005</v>
       </c>
       <c r="C29">
-        <v>1.75688</v>
+        <v>1.3230999999999999</v>
       </c>
       <c r="D29">
-        <v>1.8121499999999999</v>
+        <v>1.37416</v>
       </c>
       <c r="E29">
         <v>1.4619200000000001</v>
@@ -2108,14 +2163,14 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>24.840626565274807</v>
+        <v>0.19953140352202978</v>
       </c>
       <c r="K29">
         <v>1.37049</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>24.372154622961673</v>
+        <v>0.26707224777318955</v>
       </c>
       <c r="M29">
         <v>1.4563299999999999</v>
@@ -2133,10 +2188,10 @@
         <v>0.61912299999999998</v>
       </c>
       <c r="C30">
-        <v>1.40987</v>
+        <v>1.3389800000000001</v>
       </c>
       <c r="D30">
-        <v>1.4395199999999999</v>
+        <v>1.35544</v>
       </c>
       <c r="E30">
         <v>1.4573700000000001</v>
@@ -2149,14 +2204,14 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>5.2912679892472356</v>
+        <v>0.27707658068082436</v>
       </c>
       <c r="K30">
         <v>1.3534200000000001</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>5.9811603867955876</v>
+        <v>0.14902909756240856</v>
       </c>
       <c r="M30">
         <v>1.4517800000000001</v>
@@ -2174,10 +2229,10 @@
         <v>0.61298299999999994</v>
       </c>
       <c r="C31">
-        <v>1.3718300000000001</v>
+        <v>1.35046</v>
       </c>
       <c r="D31">
-        <v>1.3222400000000001</v>
+        <v>1.3752500000000001</v>
       </c>
       <c r="E31">
         <v>1.46044</v>
@@ -2190,14 +2245,14 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>1.8938206629101357</v>
+        <v>0.34136516446247966</v>
       </c>
       <c r="K31">
         <v>1.3706499999999999</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>3.6612112778315464</v>
+        <v>0.3344846391565286</v>
       </c>
       <c r="M31">
         <v>1.45333</v>
@@ -2215,10 +2270,10 @@
         <v>0.606155</v>
       </c>
       <c r="C32">
-        <v>1.43116</v>
+        <v>1.3586499999999999</v>
       </c>
       <c r="D32">
-        <v>1.38917</v>
+        <v>1.3847700000000001</v>
       </c>
       <c r="E32">
         <v>1.44289</v>
@@ -2231,14 +2286,14 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>5.9056988736409579</v>
+        <v>0.88396570124755125</v>
       </c>
       <c r="K32">
         <v>1.3706100000000001</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.3360495835642801</v>
+        <v>1.0225524816395466</v>
       </c>
       <c r="M32">
         <v>1.4368300000000001</v>
@@ -2256,10 +2311,10 @@
         <v>0.63947200000000004</v>
       </c>
       <c r="C33">
-        <v>1.5637700000000001</v>
+        <v>1.32541</v>
       </c>
       <c r="D33">
-        <v>1.5314300000000001</v>
+        <v>1.3329899999999999</v>
       </c>
       <c r="E33">
         <v>1.42181</v>
@@ -2272,14 +2327,14 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>15.869980879541107</v>
+        <v>0.74014833145968983</v>
       </c>
       <c r="K33">
         <v>1.32029</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>13.787114004557838</v>
+        <v>0.95274533192296529</v>
       </c>
       <c r="M33">
         <v>1.41751</v>
@@ -2297,10 +2352,10 @@
         <v>0.60811899999999997</v>
       </c>
       <c r="C34">
-        <v>1.67483</v>
+        <v>1.3335600000000001</v>
       </c>
       <c r="D34">
-        <v>1.6983900000000001</v>
+        <v>1.3598699999999999</v>
       </c>
       <c r="E34">
         <v>1.4765600000000001</v>
@@ -2313,14 +2368,14 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>20.645677471743397</v>
+        <v>0.33819250727376449</v>
       </c>
       <c r="K34">
         <v>1.35484</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>20.227980616937216</v>
+        <v>0.36988829814613661</v>
       </c>
       <c r="M34">
         <v>1.4710000000000001</v>
@@ -2338,10 +2393,10 @@
         <v>0.60448599999999997</v>
       </c>
       <c r="C35">
-        <v>1.3448</v>
+        <v>1.3724499999999999</v>
       </c>
       <c r="D35">
-        <v>1.3714999999999999</v>
+        <v>1.3803099999999999</v>
       </c>
       <c r="E35">
         <v>1.45116</v>
@@ -2354,14 +2409,14 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>1.7779595478881689</v>
+        <v>0.2725053736019421</v>
       </c>
       <c r="K35">
         <v>1.3688899999999999</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.19030258840685391</v>
+        <v>0.82735037781367859</v>
       </c>
       <c r="M35">
         <v>1.44265</v>
@@ -2379,10 +2434,10 @@
         <v>0.60157700000000003</v>
       </c>
       <c r="C36">
-        <v>1.4860800000000001</v>
+        <v>1.3636699999999999</v>
       </c>
       <c r="D36">
-        <v>1.4643299999999999</v>
+        <v>1.37103</v>
       </c>
       <c r="E36">
         <v>1.4754400000000001</v>
@@ -2395,14 +2450,14 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>8.4995424203273142</v>
+        <v>0.28599294550734522</v>
       </c>
       <c r="K36">
         <v>1.3656999999999999</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>6.7355036091591378</v>
+        <v>0.3887588163643434</v>
       </c>
       <c r="M36">
         <v>1.4676</v>
@@ -2420,10 +2475,10 @@
         <v>0.60874099999999998</v>
       </c>
       <c r="C37">
-        <v>1.56033</v>
+        <v>1.3448</v>
       </c>
       <c r="D37">
-        <v>1.50467</v>
+        <v>1.3714999999999999</v>
       </c>
       <c r="E37">
         <v>1.4610799999999999</v>
@@ -2436,14 +2491,14 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>14.028442701223462</v>
+        <v>0.24985127900059709</v>
       </c>
       <c r="K37">
         <v>1.36907</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>9.0119428180265402</v>
+        <v>0.17717827196499689</v>
       </c>
       <c r="M37">
         <v>1.45062</v>
@@ -2461,10 +2516,10 @@
         <v>0.577094</v>
       </c>
       <c r="C38">
-        <v>1.39744</v>
+        <v>1.39361</v>
       </c>
       <c r="D38">
-        <v>1.3450200000000001</v>
+        <v>1.41351</v>
       </c>
       <c r="E38">
         <v>1.5064500000000001</v>
@@ -2477,14 +2532,14 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0.98680444240897414</v>
+        <v>0.7146906236321473</v>
       </c>
       <c r="K38">
         <v>1.40777</v>
       </c>
       <c r="L38">
         <f>ABS(D38-K38)/D38 * 100</f>
-        <v>4.6653581359384884</v>
+        <v>0.40608131530729025</v>
       </c>
       <c r="M38">
         <v>1.49335</v>
@@ -2502,10 +2557,10 @@
         <v>0.60536999999999996</v>
       </c>
       <c r="C39">
-        <v>1.36968</v>
+        <v>1.3574600000000001</v>
       </c>
       <c r="D39">
-        <v>1.33867</v>
+        <v>1.3871</v>
       </c>
       <c r="E39">
         <v>1.4707399999999999</v>
@@ -2518,14 +2573,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>1.1783774312248148</v>
+        <v>0.28877462319332764</v>
       </c>
       <c r="K39">
         <v>1.3832100000000001</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>3.3271829502416597</v>
+        <v>0.28044120827625618</v>
       </c>
       <c r="M39">
         <v>1.46346</v>
@@ -2543,10 +2598,10 @@
         <v>0.56665500000000002</v>
       </c>
       <c r="C40">
-        <v>1.3574600000000001</v>
+        <v>1.40618</v>
       </c>
       <c r="D40">
-        <v>1.3871</v>
+        <v>1.4386000000000001</v>
       </c>
       <c r="E40">
         <v>1.5196000000000001</v>
@@ -2559,14 +2614,14 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>3.3179614868946392</v>
+        <v>0.26170191582869229</v>
       </c>
       <c r="K40">
         <v>1.43398</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>3.3797130704347222</v>
+        <v>0.32114555818157015</v>
       </c>
       <c r="M40">
         <v>1.5093000000000001</v>
@@ -2584,10 +2639,10 @@
         <v>0.57698000000000005</v>
       </c>
       <c r="C41">
-        <v>1.4944599999999999</v>
+        <v>1.39666</v>
       </c>
       <c r="D41">
-        <v>1.5086999999999999</v>
+        <v>1.41581</v>
       </c>
       <c r="E41">
         <v>1.52664</v>
@@ -2600,14 +2655,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>6.8707091524697814</v>
+        <v>0.34940500909312183</v>
       </c>
       <c r="K41">
         <v>1.40188</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>7.0802677802081213</v>
+        <v>0.98388908116202012</v>
       </c>
       <c r="M41">
         <v>1.5185299999999999</v>
@@ -2625,10 +2680,10 @@
         <v>0.58516900000000005</v>
       </c>
       <c r="C42">
-        <v>1.43252</v>
+        <v>1.39557</v>
       </c>
       <c r="D42">
-        <v>1.4556800000000001</v>
+        <v>1.40296</v>
       </c>
       <c r="E42">
         <v>1.52363</v>
@@ -2641,14 +2696,14 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>3.1797112780275305</v>
+        <v>0.61623565998122209</v>
       </c>
       <c r="K42">
         <v>1.39852</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>3.926687183996489</v>
+        <v>0.31647374123282201</v>
       </c>
       <c r="M42">
         <v>1.5116000000000001</v>
@@ -2666,10 +2721,10 @@
         <v>0.60814699999999999</v>
       </c>
       <c r="C43">
-        <v>1.4924200000000001</v>
+        <v>1.35669</v>
       </c>
       <c r="D43">
-        <v>1.4709700000000001</v>
+        <v>1.3610199999999999</v>
       </c>
       <c r="E43">
         <v>1.4645600000000001</v>
@@ -2682,14 +2737,14 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>9.2326556867369813</v>
+        <v>0.15184014034156298</v>
       </c>
       <c r="K43">
         <v>1.3464799999999999</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>8.4631229732761515</v>
+        <v>1.0683164097515099</v>
       </c>
       <c r="M43">
         <v>1.4539800000000001</v>
@@ -2707,10 +2762,10 @@
         <v>0.59141299999999997</v>
       </c>
       <c r="C44">
-        <v>1.6522699999999999</v>
+        <v>1.37175</v>
       </c>
       <c r="D44">
-        <v>1.6760699999999999</v>
+        <v>1.39601</v>
       </c>
       <c r="E44">
         <v>1.48247</v>
@@ -2723,14 +2778,14 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>17.727126922355303</v>
+        <v>0.90249681064334297</v>
       </c>
       <c r="K44">
         <v>1.39235</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>16.927693950729982</v>
+        <v>0.26217577237985379</v>
       </c>
       <c r="M44">
         <v>1.4692499999999999</v>
@@ -2748,10 +2803,10 @@
         <v>0.58187500000000003</v>
       </c>
       <c r="C45">
-        <v>1.3882699999999999</v>
+        <v>1.3976900000000001</v>
       </c>
       <c r="D45">
-        <v>1.34859</v>
+        <v>1.4202300000000001</v>
       </c>
       <c r="E45">
         <v>1.48343</v>
@@ -2764,14 +2819,14 @@
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>0.32198347583683107</v>
+        <v>0.99378259843027983</v>
       </c>
       <c r="K45">
         <v>1.4057900000000001</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>4.2414670136957966</v>
+        <v>1.0167367257416058</v>
       </c>
       <c r="M45">
         <v>1.4712499999999999</v>
@@ -2789,10 +2844,10 @@
         <v>0.58508400000000005</v>
       </c>
       <c r="C46">
-        <v>1.6851100000000001</v>
+        <v>1.40794</v>
       </c>
       <c r="D46">
-        <v>1.69347</v>
+        <v>1.4150799999999999</v>
       </c>
       <c r="E46">
         <v>1.4830000000000001</v>
@@ -2805,14 +2860,14 @@
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>16.629181477767037</v>
+        <v>0.21662854951205288</v>
       </c>
       <c r="K46">
         <v>1.4113899999999999</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>16.656923358547839</v>
+        <v>0.26076264239477426</v>
       </c>
       <c r="M46">
         <v>1.47383</v>
@@ -2830,10 +2885,10 @@
         <v>0.575461</v>
       </c>
       <c r="C47">
-        <v>1.6254</v>
+        <v>1.4128099999999999</v>
       </c>
       <c r="D47">
-        <v>1.6463300000000001</v>
+        <v>1.38483</v>
       </c>
       <c r="E47">
         <v>1.50698</v>
@@ -2846,14 +2901,14 @@
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>13.824904638858126</v>
+        <v>0.85786482258760277</v>
       </c>
       <c r="K47">
         <v>1.38066</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>16.137104954656724</v>
+        <v>0.30111999306774168</v>
       </c>
       <c r="M47">
         <v>1.4995400000000001</v>
@@ -2871,10 +2926,10 @@
         <v>0.56179400000000002</v>
       </c>
       <c r="C48">
-        <v>1.3841300000000001</v>
+        <v>1.4052899999999999</v>
       </c>
       <c r="D48">
-        <v>1.3332999999999999</v>
+        <v>1.3949800000000001</v>
       </c>
       <c r="E48">
         <v>1.55419</v>
@@ -2887,14 +2942,14 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>0.80989502431129612</v>
+        <v>0.70803891011818942</v>
       </c>
       <c r="K48">
         <v>1.3888</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>4.1626040651016352</v>
+        <v>0.44301710418787899</v>
       </c>
       <c r="M48">
         <v>1.5418499999999999</v>
@@ -2912,10 +2967,10 @@
         <v>0.54973799999999995</v>
       </c>
       <c r="C49">
-        <v>1.3626400000000001</v>
+        <v>1.4448700000000001</v>
       </c>
       <c r="D49">
-        <v>1.34076</v>
+        <v>1.39053</v>
       </c>
       <c r="E49">
         <v>1.5929899999999999</v>
@@ -2928,14 +2983,14 @@
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>5.7660130335231621</v>
+        <v>0.25330998636555513</v>
       </c>
       <c r="K49">
         <v>1.38584</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.3622721441570462</v>
+        <v>0.33728146821716054</v>
       </c>
       <c r="M49">
         <v>1.5836300000000001</v>
@@ -2953,10 +3008,10 @@
         <v>0.55354599999999998</v>
       </c>
       <c r="C50">
-        <v>1.5070300000000001</v>
+        <v>1.44312</v>
       </c>
       <c r="D50">
-        <v>1.4886600000000001</v>
+        <v>1.40269</v>
       </c>
       <c r="E50">
         <v>1.55341</v>
@@ -2969,14 +3024,14 @@
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>4.9076660716774061</v>
+        <v>0.69640778313653007</v>
       </c>
       <c r="K50">
         <v>1.39005</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>6.6240780299060953</v>
+        <v>0.90112569420185384</v>
       </c>
       <c r="M50">
         <v>1.5448599999999999</v>
@@ -2994,10 +3049,10 @@
         <v>0.56094999999999995</v>
       </c>
       <c r="C51">
-        <v>1.36412</v>
+        <v>1.43116</v>
       </c>
       <c r="D51">
-        <v>1.3376399999999999</v>
+        <v>1.38917</v>
       </c>
       <c r="E51">
         <v>1.56792</v>
@@ -3010,14 +3065,14 @@
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>4.6102982142333442</v>
+        <v>0.28997456608625855</v>
       </c>
       <c r="K51">
         <v>1.3853500000000001</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>3.5667294638318339</v>
+        <v>0.27498434316893788</v>
       </c>
       <c r="M51">
         <v>1.5594699999999999</v>
@@ -3035,10 +3090,10 @@
         <v>0.55653799999999998</v>
       </c>
       <c r="C52">
-        <v>1.3976900000000001</v>
+        <v>1.4256899999999999</v>
       </c>
       <c r="D52">
-        <v>1.4202300000000001</v>
+        <v>1.40124</v>
       </c>
       <c r="E52">
         <v>1.55281</v>
@@ -3051,14 +3106,14 @@
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>1.5425451995792916</v>
+        <v>0.45171110129130471</v>
       </c>
       <c r="K52">
         <v>1.39883</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>1.5067981946586175</v>
+        <v>0.17199052267991372</v>
       </c>
       <c r="M52">
         <v>1.54419</v>
@@ -3076,10 +3131,10 @@
         <v>0.57894800000000002</v>
       </c>
       <c r="C53">
-        <v>1.35955</v>
+        <v>1.39245</v>
       </c>
       <c r="D53">
-        <v>1.3810100000000001</v>
+        <v>1.37005</v>
       </c>
       <c r="E53">
         <v>1.5179100000000001</v>
@@ -3092,14 +3147,14 @@
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>1.4534220881909454</v>
+        <v>0.94366045459441483</v>
       </c>
       <c r="K53">
         <v>1.36531</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>1.1368491176747486</v>
+        <v>0.34597277471624877</v>
       </c>
       <c r="M53">
         <v>1.5088699999999999</v>
@@ -3117,10 +3172,10 @@
         <v>0.55787299999999995</v>
       </c>
       <c r="C54">
-        <v>1.35669</v>
+        <v>1.4459900000000001</v>
       </c>
       <c r="D54">
-        <v>1.3610199999999999</v>
+        <v>1.39411</v>
       </c>
       <c r="E54">
         <v>1.5306999999999999</v>
@@ -3133,14 +3188,14 @@
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>6.3006287361151037</v>
+        <v>0.26417886707378035</v>
       </c>
       <c r="K54">
         <v>1.3802000000000001</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>1.4092371897547573</v>
+        <v>0.99776918607569465</v>
       </c>
       <c r="M54">
         <v>1.5160800000000001</v>
@@ -3158,10 +3213,10 @@
         <v>0.56381000000000003</v>
       </c>
       <c r="C55">
-        <v>1.5382199999999999</v>
+        <v>1.43126</v>
       </c>
       <c r="D55">
-        <v>1.5416000000000001</v>
+        <v>1.3849499999999999</v>
       </c>
       <c r="E55">
         <v>1.5280199999999999</v>
@@ -3174,14 +3229,14 @@
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>7.2850437518690327</v>
+        <v>0.35632938809160336</v>
       </c>
       <c r="K55">
         <v>1.3756999999999999</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>10.761546445251696</v>
+        <v>0.66789414780316847</v>
       </c>
       <c r="M55">
         <v>1.5178799999999999</v>
@@ -3199,10 +3254,10 @@
         <v>0.43783300000000003</v>
       </c>
       <c r="C56">
-        <v>1.3724499999999999</v>
+        <v>1.57196</v>
       </c>
       <c r="D56">
-        <v>1.3803099999999999</v>
+        <v>1.55535</v>
       </c>
       <c r="E56">
         <v>2.0402399999999998</v>
@@ -3215,14 +3270,14 @@
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>13.023425261393868</v>
+        <v>1.321280439705842</v>
       </c>
       <c r="K56">
         <v>1.53948</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>11.531467568879458</v>
+        <v>1.0203491175619668</v>
       </c>
       <c r="M56">
         <v>2.0107300000000001</v>
@@ -3240,10 +3295,10 @@
         <v>0.45376</v>
       </c>
       <c r="C57">
-        <v>1.3335600000000001</v>
+        <v>1.56945</v>
       </c>
       <c r="D57">
-        <v>1.3598699999999999</v>
+        <v>1.5471999999999999</v>
       </c>
       <c r="E57">
         <v>1.9265000000000001</v>
@@ -3256,14 +3311,14 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>17.290560604697198</v>
+        <v>0.33833508553951547</v>
       </c>
       <c r="K57">
         <v>1.5407999999999999</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>13.304948267113772</v>
+        <v>0.41365046535677102</v>
       </c>
       <c r="M57">
         <v>1.9064300000000001</v>
@@ -3281,10 +3336,10 @@
         <v>0.449125</v>
       </c>
       <c r="C58">
-        <v>1.40618</v>
+        <v>1.5610900000000001</v>
       </c>
       <c r="D58">
-        <v>1.4386000000000001</v>
+        <v>1.55237</v>
       </c>
       <c r="E58">
         <v>1.9596899999999999</v>
@@ -3297,14 +3352,14 @@
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>10.074812612894506</v>
+        <v>0.84812534831432784</v>
       </c>
       <c r="K58">
         <v>1.5346900000000001</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>6.6794105380230784</v>
+        <v>1.1389037407319078</v>
       </c>
       <c r="M58">
         <v>1.9426699999999999</v>
@@ -3322,10 +3377,10 @@
         <v>0.441251</v>
       </c>
       <c r="C59">
-        <v>1.51196</v>
+        <v>1.5609200000000001</v>
       </c>
       <c r="D59">
-        <v>1.51766</v>
+        <v>1.54392</v>
       </c>
       <c r="E59">
         <v>1.9899500000000001</v>
@@ -3338,14 +3393,14 @@
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
-        <v>2.2983412259583629</v>
+        <v>0.91036055659483217</v>
       </c>
       <c r="K59">
         <v>1.5325500000000001</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>0.98111566490518765</v>
+        <v>0.73643712109434956</v>
       </c>
       <c r="M59">
         <v>1.96702</v>
@@ -3363,10 +3418,10 @@
         <v>0.44546799999999998</v>
       </c>
       <c r="C60">
-        <v>1.39245</v>
+        <v>1.5637700000000001</v>
       </c>
       <c r="D60">
-        <v>1.37005</v>
+        <v>1.5314300000000001</v>
       </c>
       <c r="E60">
         <v>2.02264</v>
@@ -3379,14 +3434,14 @@
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>11.925024237854144</v>
+        <v>0.33700608145699862</v>
       </c>
       <c r="K60">
         <v>1.52559</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>11.352870333199519</v>
+        <v>0.38134292785175078</v>
       </c>
       <c r="M60">
         <v>2.0039699999999998</v>
@@ -3404,10 +3459,10 @@
         <v>0.46566299999999999</v>
       </c>
       <c r="C61">
-        <v>1.5364899999999999</v>
+        <v>1.4944599999999999</v>
       </c>
       <c r="D61">
-        <v>1.4966200000000001</v>
+        <v>1.5086999999999999</v>
       </c>
       <c r="E61">
         <v>1.8758300000000001</v>
@@ -3420,14 +3475,14 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>3.5431405345950724</v>
+        <v>0.83040027836140218</v>
       </c>
       <c r="K61">
         <v>1.50667</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.67151314294877062</v>
+        <v>0.13455292636044119</v>
       </c>
       <c r="M61">
         <v>1.85575</v>
@@ -3445,10 +3500,10 @@
         <v>0.46606999999999998</v>
       </c>
       <c r="C62">
-        <v>1.35046</v>
+        <v>1.5070300000000001</v>
       </c>
       <c r="D62">
-        <v>1.3752500000000001</v>
+        <v>1.4886600000000001</v>
       </c>
       <c r="E62">
         <v>1.9011499999999999</v>
@@ -3461,14 +3516,14 @@
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
-        <v>10.82445981369311</v>
+        <v>0.68943551223267763</v>
       </c>
       <c r="K62">
         <v>1.4860599999999999</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>8.0574441010725213</v>
+        <v>0.17465371542193367</v>
       </c>
       <c r="M62">
         <v>1.8825499999999999</v>
@@ -3486,10 +3541,10 @@
         <v>0.48092699999999999</v>
       </c>
       <c r="C63">
-        <v>1.36104</v>
+        <v>1.50739</v>
       </c>
       <c r="D63">
-        <v>1.34344</v>
+        <v>1.4882500000000001</v>
       </c>
       <c r="E63">
         <v>1.8517300000000001</v>
@@ -3502,14 +3557,14 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>9.3413859989419876</v>
+        <v>1.2743881808954516</v>
       </c>
       <c r="K63">
         <v>1.4844599999999999</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>10.496933245995351</v>
+        <v>0.25466151520243119</v>
       </c>
       <c r="M63">
         <v>1.83491</v>
@@ -3527,10 +3582,10 @@
         <v>0.46265499999999998</v>
       </c>
       <c r="C64">
-        <v>1.4459900000000001</v>
+        <v>1.56033</v>
       </c>
       <c r="D64">
-        <v>1.39411</v>
+        <v>1.50467</v>
       </c>
       <c r="E64">
         <v>1.87215</v>
@@ -3543,14 +3598,14 @@
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
-        <v>7.6390569782640112</v>
+        <v>0.24866534643313309</v>
       </c>
       <c r="K64">
         <v>1.48834</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>6.7591509995624479</v>
+        <v>1.0852878039703029</v>
       </c>
       <c r="M64">
         <v>1.8473200000000001</v>
@@ -3568,10 +3623,10 @@
         <v>0.58444399999999996</v>
       </c>
       <c r="C65">
-        <v>1.6356999999999999</v>
+        <v>1.4002600000000001</v>
       </c>
       <c r="D65">
-        <v>1.6349800000000001</v>
+        <v>1.4087799999999999</v>
       </c>
       <c r="E65">
         <v>1.48386</v>
@@ -3584,14 +3639,14 @@
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
-        <v>14.54056367304517</v>
+        <v>0.17139674060531312</v>
       </c>
       <c r="K65">
         <v>1.40587</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>14.013015449730279</v>
+        <v>0.20656170587316458</v>
       </c>
       <c r="M65">
         <v>1.47566</v>
@@ -3609,10 +3664,10 @@
         <v>0.61217500000000002</v>
       </c>
       <c r="C66">
-        <v>1.3592500000000001</v>
+        <v>1.35955</v>
       </c>
       <c r="D66">
-        <v>1.3812199999999999</v>
+        <v>1.3810100000000001</v>
       </c>
       <c r="E66">
         <v>1.4299500000000001</v>
@@ -3625,14 +3680,14 @@
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>0.14640426705905155</v>
+        <v>0.16843808613144975</v>
       </c>
       <c r="K66">
         <v>1.3671800000000001</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.0164926659040436</v>
+        <v>1.0014409743593462</v>
       </c>
       <c r="M66">
         <v>1.4215599999999999</v>
@@ -3650,10 +3705,10 @@
         <v>0.57217099999999999</v>
       </c>
       <c r="C67">
-        <v>1.5205299999999999</v>
+        <v>1.4020699999999999</v>
       </c>
       <c r="D67">
-        <v>1.5006999999999999</v>
+        <v>1.4039900000000001</v>
       </c>
       <c r="E67">
         <v>1.53494</v>
@@ -3665,15 +3720,15 @@
         <v>1.3929400000000001</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J91" si="3">ABS(C67-I67)/C67 * 100</f>
-        <v>8.3911530847796421</v>
+        <f t="shared" ref="J67:J100" si="3">ABS(C67-I67)/C67 * 100</f>
+        <v>0.65118004093945814</v>
       </c>
       <c r="K67">
         <v>1.40069</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L70" si="4">ABS(D67-K67)/D67 * 100</f>
-        <v>6.6642233624308611</v>
+        <v>0.23504440914821906</v>
       </c>
       <c r="M67">
         <v>1.5284800000000001</v>
@@ -3691,10 +3746,10 @@
         <v>0.60177999999999998</v>
       </c>
       <c r="C68">
-        <v>1.4023399999999999</v>
+        <v>1.3592500000000001</v>
       </c>
       <c r="D68">
-        <v>1.41838</v>
+        <v>1.3812199999999999</v>
       </c>
       <c r="E68">
         <v>1.46801</v>
@@ -3707,14 +3762,14 @@
       </c>
       <c r="J68">
         <f t="shared" si="3"/>
-        <v>3.4470955688349356</v>
+        <v>0.38624241309545532</v>
       </c>
       <c r="K68">
         <v>1.3671</v>
       </c>
       <c r="L68">
         <f t="shared" si="4"/>
-        <v>3.6153922080119569</v>
+        <v>1.0222846469063518</v>
       </c>
       <c r="M68">
         <v>1.46072</v>
@@ -3732,10 +3787,10 @@
         <v>0.61544100000000002</v>
       </c>
       <c r="C69">
-        <v>1.4810700000000001</v>
+        <v>1.3555900000000001</v>
       </c>
       <c r="D69">
-        <v>1.5053099999999999</v>
+        <v>1.35703</v>
       </c>
       <c r="E69">
         <v>1.4483600000000001</v>
@@ -3748,14 +3803,14 @@
       </c>
       <c r="J69">
         <f t="shared" si="3"/>
-        <v>8.7146454927856212</v>
+        <v>0.26482933630374833</v>
       </c>
       <c r="K69">
         <v>1.34554</v>
       </c>
       <c r="L69">
         <f t="shared" si="4"/>
-        <v>10.613760620735926</v>
+        <v>0.84670198890223514</v>
       </c>
       <c r="M69">
         <v>1.4441299999999999</v>
@@ -3773,10 +3828,10 @@
         <v>0.57331500000000002</v>
       </c>
       <c r="C70">
-        <v>1.5610900000000001</v>
+        <v>1.4023399999999999</v>
       </c>
       <c r="D70">
-        <v>1.55237</v>
+        <v>1.41838</v>
       </c>
       <c r="E70">
         <v>1.5157700000000001</v>
@@ -3789,14 +3844,14 @@
       </c>
       <c r="J70">
         <f t="shared" si="3"/>
-        <v>10.905200853249983</v>
+        <v>0.81934480939001952</v>
       </c>
       <c r="K70">
         <v>1.4034</v>
       </c>
       <c r="L70">
         <f t="shared" si="4"/>
-        <v>9.5962946977846819</v>
+        <v>1.0561344632609029</v>
       </c>
       <c r="M70">
         <v>1.5039499999999999</v>
@@ -3814,10 +3869,10 @@
         <v>0.599553</v>
       </c>
       <c r="C71">
-        <v>1.54925</v>
+        <v>1.36229</v>
       </c>
       <c r="D71">
-        <v>1.5043599999999999</v>
+        <v>1.37852</v>
       </c>
       <c r="E71">
         <v>1.4685299999999999</v>
@@ -3830,14 +3885,14 @@
       </c>
       <c r="J71">
         <f t="shared" si="3"/>
-        <v>12.325318702598029</v>
+        <v>0.29288917924964125</v>
       </c>
       <c r="K71">
         <v>1.3742700000000001</v>
       </c>
       <c r="L71">
         <f>ABS(D71-K71)/D71 * 100</f>
-        <v>8.6475311760482754</v>
+        <v>0.30830165684936489</v>
       </c>
       <c r="M71">
         <v>1.4582599999999999</v>
@@ -3855,10 +3910,10 @@
         <v>0.60094000000000003</v>
       </c>
       <c r="C72">
-        <v>1.8095699999999999</v>
+        <v>1.3645700000000001</v>
       </c>
       <c r="D72">
-        <v>1.87191</v>
+        <v>1.3747499999999999</v>
       </c>
       <c r="E72">
         <v>1.4630000000000001</v>
@@ -3871,14 +3926,14 @@
       </c>
       <c r="J72">
         <f t="shared" si="3"/>
-        <v>24.767762507114945</v>
+        <v>0.23377327656331487</v>
       </c>
       <c r="K72">
         <v>1.37188</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L91" si="6">ABS(D72-K72)/D72 * 100</f>
-        <v>26.712288518144568</v>
+        <f t="shared" ref="L72:L100" si="6">ABS(D72-K72)/D72 * 100</f>
+        <v>0.20876523004182057</v>
       </c>
       <c r="M72">
         <v>1.4583200000000001</v>
@@ -3896,10 +3951,10 @@
         <v>0.59264600000000001</v>
       </c>
       <c r="C73">
-        <v>1.40794</v>
+        <v>1.3670500000000001</v>
       </c>
       <c r="D73">
-        <v>1.4150799999999999</v>
+        <v>1.3908700000000001</v>
       </c>
       <c r="E73">
         <v>1.50068</v>
@@ -3912,14 +3967,14 @@
       </c>
       <c r="J73">
         <f t="shared" si="3"/>
-        <v>3.8339701975936418</v>
+        <v>0.95753630079368313</v>
       </c>
       <c r="K73">
         <v>1.3869100000000001</v>
       </c>
       <c r="L73">
         <f t="shared" si="6"/>
-        <v>1.9907001724284006</v>
+        <v>0.28471388411569476</v>
       </c>
       <c r="M73">
         <v>1.49499</v>
@@ -3937,10 +3992,10 @@
         <v>0.51217900000000005</v>
       </c>
       <c r="C74">
-        <v>1.44686</v>
+        <v>1.52403</v>
       </c>
       <c r="D74">
-        <v>1.45495</v>
+        <v>1.4738800000000001</v>
       </c>
       <c r="E74">
         <v>1.6881900000000001</v>
@@ -3953,14 +4008,14 @@
       </c>
       <c r="J74">
         <f t="shared" si="3"/>
-        <v>4.3224638181994139</v>
+        <v>0.95995485653169044</v>
       </c>
       <c r="K74">
         <v>1.46814</v>
       </c>
       <c r="L74">
         <f t="shared" si="6"/>
-        <v>0.90656036289907105</v>
+        <v>0.38944825901702163</v>
       </c>
       <c r="M74">
         <v>1.6780900000000001</v>
@@ -3978,10 +4033,10 @@
         <v>0.52549400000000002</v>
       </c>
       <c r="C75">
-        <v>1.57196</v>
+        <v>1.4860800000000001</v>
       </c>
       <c r="D75">
-        <v>1.55535</v>
+        <v>1.4643299999999999</v>
       </c>
       <c r="E75">
         <v>1.6230199999999999</v>
@@ -3994,14 +4049,14 @@
       </c>
       <c r="J75">
         <f t="shared" si="3"/>
-        <v>5.7221557800452922</v>
+        <v>0.27387489233419587</v>
       </c>
       <c r="K75">
         <v>1.46051</v>
       </c>
       <c r="L75">
         <f t="shared" si="6"/>
-        <v>6.0976629054553655</v>
+        <v>0.26087015904884381</v>
       </c>
       <c r="M75">
         <v>1.6119600000000001</v>
@@ -4019,10 +4074,10 @@
         <v>0.51868700000000001</v>
       </c>
       <c r="C76">
-        <v>1.4052899999999999</v>
+        <v>1.4924200000000001</v>
       </c>
       <c r="D76">
-        <v>1.3949800000000001</v>
+        <v>1.4709700000000001</v>
       </c>
       <c r="E76">
         <v>1.6585399999999999</v>
@@ -4035,14 +4090,14 @@
       </c>
       <c r="J76">
         <f t="shared" si="3"/>
-        <v>5.8550192486960082</v>
+        <v>0.32497554307768728</v>
       </c>
       <c r="K76">
         <v>1.45638</v>
       </c>
       <c r="L76">
         <f t="shared" si="6"/>
-        <v>4.4014967956529771</v>
+        <v>0.99186251249176405</v>
       </c>
       <c r="M76">
         <v>1.6464799999999999</v>
@@ -4060,10 +4115,10 @@
         <v>0.49610799999999999</v>
       </c>
       <c r="C77">
-        <v>1.6535899999999999</v>
+        <v>1.51196</v>
       </c>
       <c r="D77">
-        <v>1.6825699999999999</v>
+        <v>1.51766</v>
       </c>
       <c r="E77">
         <v>1.67134</v>
@@ -4076,14 +4131,14 @@
       </c>
       <c r="J77">
         <f t="shared" si="3"/>
-        <v>8.8697923911005674</v>
+        <v>0.33334215190877625</v>
       </c>
       <c r="K77">
         <v>1.5014099999999999</v>
       </c>
       <c r="L77">
         <f t="shared" si="6"/>
-        <v>10.766862597098486</v>
+        <v>1.0707273038757097</v>
       </c>
       <c r="M77">
         <v>1.6593899999999999</v>
@@ -4101,10 +4156,10 @@
         <v>0.51702499999999996</v>
       </c>
       <c r="C78">
-        <v>1.40665</v>
+        <v>1.5364899999999999</v>
       </c>
       <c r="D78">
-        <v>1.4764200000000001</v>
+        <v>1.4966200000000001</v>
       </c>
       <c r="E78">
         <v>1.69774</v>
@@ -4117,14 +4172,14 @@
       </c>
       <c r="J78">
         <f t="shared" si="3"/>
-        <v>8.5110013151814634</v>
+        <v>0.65864405235308443</v>
       </c>
       <c r="K78">
         <v>1.49095</v>
       </c>
       <c r="L78">
         <f t="shared" si="6"/>
-        <v>0.98413730510287922</v>
+        <v>0.37885368363379235</v>
       </c>
       <c r="M78">
         <v>1.68848</v>
@@ -4142,10 +4197,10 @@
         <v>0.50218499999999999</v>
       </c>
       <c r="C79">
-        <v>1.4128099999999999</v>
+        <v>1.5205299999999999</v>
       </c>
       <c r="D79">
-        <v>1.38483</v>
+        <v>1.5006999999999999</v>
       </c>
       <c r="E79">
         <v>1.6956599999999999</v>
@@ -4158,14 +4213,14 @@
       </c>
       <c r="J79">
         <f t="shared" si="3"/>
-        <v>7.2033748345495958</v>
+        <v>0.39131092448027333</v>
       </c>
       <c r="K79">
         <v>1.4941599999999999</v>
       </c>
       <c r="L79">
         <f t="shared" si="6"/>
-        <v>7.8948318566177749</v>
+        <v>0.43579662824015403</v>
       </c>
       <c r="M79">
         <v>1.6836899999999999</v>
@@ -4183,10 +4238,10 @@
         <v>0.48738300000000001</v>
       </c>
       <c r="C80">
-        <v>1.37175</v>
+        <v>1.56298</v>
       </c>
       <c r="D80">
-        <v>1.39601</v>
+        <v>1.5157</v>
       </c>
       <c r="E80">
         <v>1.70604</v>
@@ -4199,14 +4254,14 @@
       </c>
       <c r="J80">
         <f t="shared" si="3"/>
-        <v>13.674503371605621</v>
+        <v>0.23352826011848721</v>
       </c>
       <c r="K80">
         <v>1.5111399999999999</v>
       </c>
       <c r="L80">
         <f t="shared" si="6"/>
-        <v>8.2470755940143672</v>
+        <v>0.30085109190473835</v>
       </c>
       <c r="M80">
         <v>1.6891099999999999</v>
@@ -4224,10 +4279,10 @@
         <v>0.51156599999999997</v>
       </c>
       <c r="C81">
-        <v>1.3645700000000001</v>
+        <v>1.54925</v>
       </c>
       <c r="D81">
-        <v>1.3747499999999999</v>
+        <v>1.5043599999999999</v>
       </c>
       <c r="E81">
         <v>1.64615</v>
@@ -4240,14 +4295,14 @@
       </c>
       <c r="J81">
         <f t="shared" si="3"/>
-        <v>13.012157676044463</v>
+        <v>0.45957721478134678</v>
       </c>
       <c r="K81">
         <v>1.4882299999999999</v>
       </c>
       <c r="L81">
         <f t="shared" si="6"/>
-        <v>8.2545917439534495</v>
+        <v>1.0722167566274017</v>
       </c>
       <c r="M81">
         <v>1.63459</v>
@@ -4265,28 +4320,16 @@
         <v>0.50346299999999999</v>
       </c>
       <c r="C82">
-        <v>1.3670500000000001</v>
+        <v>1.5382199999999999</v>
       </c>
       <c r="D82">
-        <v>1.3908700000000001</v>
+        <v>1.5416000000000001</v>
       </c>
       <c r="E82">
         <v>1.6888700000000001</v>
       </c>
       <c r="H82" t="s">
         <v>190</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="5"/>
-        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4297,10 +4340,10 @@
         <v>0.42316900000000002</v>
       </c>
       <c r="C83">
-        <v>1.4448700000000001</v>
+        <v>1.62429</v>
       </c>
       <c r="D83">
-        <v>1.39053</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="E83">
         <v>2.1209799999999999</v>
@@ -4313,14 +4356,14 @@
       </c>
       <c r="J83">
         <f t="shared" si="3"/>
-        <v>11.924948265241849</v>
+        <v>0.43834536936138346</v>
       </c>
       <c r="K83">
         <v>1.64588</v>
       </c>
       <c r="L83">
         <f t="shared" si="6"/>
-        <v>18.363501686407339</v>
+        <v>0.49093107617895437</v>
       </c>
       <c r="M83">
         <v>2.0962499999999999</v>
@@ -4338,10 +4381,10 @@
         <v>0.418572</v>
       </c>
       <c r="C84">
-        <v>1.36229</v>
+        <v>1.65001</v>
       </c>
       <c r="D84">
-        <v>1.37852</v>
+        <v>1.6315500000000001</v>
       </c>
       <c r="E84">
         <v>2.0952999999999999</v>
@@ -4354,14 +4397,14 @@
       </c>
       <c r="J84">
         <f t="shared" si="3"/>
-        <v>19.785801848358268</v>
+        <v>1.1018115041727072</v>
       </c>
       <c r="K84">
         <v>1.61557</v>
       </c>
       <c r="L84">
         <f t="shared" si="6"/>
-        <v>17.195978295563357</v>
+        <v>0.97943673194202474</v>
       </c>
       <c r="M84">
         <v>2.07429</v>
@@ -4379,10 +4422,10 @@
         <v>0.43995400000000001</v>
       </c>
       <c r="C85">
-        <v>1.4020699999999999</v>
+        <v>1.6254</v>
       </c>
       <c r="D85">
-        <v>1.4039900000000001</v>
+        <v>1.6463300000000001</v>
       </c>
       <c r="E85">
         <v>2.0255000000000001</v>
@@ -4395,14 +4438,14 @@
       </c>
       <c r="J85">
         <f t="shared" si="3"/>
-        <v>15.438601496358965</v>
+        <v>0.42266519010704634</v>
       </c>
       <c r="K85">
         <v>1.6402099999999999</v>
       </c>
       <c r="L85">
         <f t="shared" si="6"/>
-        <v>16.824906160300277</v>
+        <v>0.37173592171679587</v>
       </c>
       <c r="M85">
         <v>2.0052500000000002</v>
@@ -4420,10 +4463,10 @@
         <v>0.40418100000000001</v>
       </c>
       <c r="C86">
-        <v>1.39557</v>
+        <v>1.66919</v>
       </c>
       <c r="D86">
-        <v>1.40296</v>
+        <v>1.67716</v>
       </c>
       <c r="E86">
         <v>2.1980300000000002</v>
@@ -4436,14 +4479,14 @@
       </c>
       <c r="J86">
         <f t="shared" si="3"/>
-        <v>18.172502991609171</v>
+        <v>1.1987850394502639</v>
       </c>
       <c r="K86">
         <v>1.6710199999999999</v>
       </c>
       <c r="L86">
         <f t="shared" si="6"/>
-        <v>19.106745737583392</v>
+        <v>0.36609506546781667</v>
       </c>
       <c r="M86">
         <v>2.1728399999999999</v>
@@ -4461,10 +4504,10 @@
         <v>0.42446200000000001</v>
       </c>
       <c r="C87">
-        <v>1.56945</v>
+        <v>1.67483</v>
       </c>
       <c r="D87">
-        <v>1.5471999999999999</v>
+        <v>1.6983900000000001</v>
       </c>
       <c r="E87">
         <v>2.1046999999999998</v>
@@ -4477,14 +4520,14 @@
       </c>
       <c r="J87">
         <f t="shared" si="3"/>
-        <v>6.337251903533077</v>
+        <v>0.35346871025716925</v>
       </c>
       <c r="K87">
         <v>1.6948300000000001</v>
       </c>
       <c r="L87">
         <f t="shared" si="6"/>
-        <v>9.5417528438469592</v>
+        <v>0.20961027796913589</v>
       </c>
       <c r="M87">
         <v>2.0748799999999998</v>
@@ -4502,10 +4545,10 @@
         <v>0.42082999999999998</v>
       </c>
       <c r="C88">
-        <v>1.37314</v>
+        <v>1.6356999999999999</v>
       </c>
       <c r="D88">
-        <v>1.3515999999999999</v>
+        <v>1.6349800000000001</v>
       </c>
       <c r="E88">
         <v>2.0565500000000001</v>
@@ -4518,14 +4561,14 @@
       </c>
       <c r="J88">
         <f t="shared" si="3"/>
-        <v>18.004719110942808</v>
+        <v>0.93721342544475417</v>
       </c>
       <c r="K88">
         <v>1.6155600000000001</v>
       </c>
       <c r="L88">
         <f t="shared" si="6"/>
-        <v>19.52944658182896</v>
+        <v>1.1877821135426727</v>
       </c>
       <c r="M88">
         <v>2.0357599999999998</v>
@@ -4543,10 +4586,10 @@
         <v>0.43773699999999999</v>
       </c>
       <c r="C89">
-        <v>1.3636699999999999</v>
+        <v>1.6437600000000001</v>
       </c>
       <c r="D89">
-        <v>1.37103</v>
+        <v>1.64574</v>
       </c>
       <c r="E89">
         <v>2.0243699999999998</v>
@@ -4559,14 +4602,14 @@
       </c>
       <c r="J89">
         <f t="shared" si="3"/>
-        <v>19.45852002317276</v>
+        <v>0.89672458266414778</v>
       </c>
       <c r="K89">
         <v>1.64</v>
       </c>
       <c r="L89">
         <f t="shared" si="6"/>
-        <v>19.618097342873604</v>
+        <v>0.34877927254609342</v>
       </c>
       <c r="M89">
         <v>1.99996</v>
@@ -4584,10 +4627,10 @@
         <v>0.40284599999999998</v>
       </c>
       <c r="C90">
-        <v>1.3293200000000001</v>
+        <v>1.7074499999999999</v>
       </c>
       <c r="D90">
-        <v>1.3146899999999999</v>
+        <v>1.7952999999999999</v>
       </c>
       <c r="E90">
         <v>2.20126</v>
@@ -4600,14 +4643,14 @@
       </c>
       <c r="J90">
         <f t="shared" si="3"/>
-        <v>26.916769476123125</v>
+        <v>1.1900787724384254</v>
       </c>
       <c r="K90">
         <v>1.78684</v>
       </c>
       <c r="L90">
         <f t="shared" si="6"/>
-        <v>35.913409244764935</v>
+        <v>0.47123043502478207</v>
       </c>
       <c r="M90">
         <v>2.1759900000000001</v>
@@ -4625,10 +4668,10 @@
         <v>0.39049</v>
       </c>
       <c r="C91">
-        <v>1.3230999999999999</v>
+        <v>1.75688</v>
       </c>
       <c r="D91">
-        <v>1.37416</v>
+        <v>1.8121499999999999</v>
       </c>
       <c r="E91">
         <v>2.26126</v>
@@ -4641,14 +4684,14 @@
       </c>
       <c r="J91">
         <f t="shared" si="3"/>
-        <v>32.272692918146781</v>
+        <v>0.38591138837029326</v>
       </c>
       <c r="K91">
         <v>1.78996</v>
       </c>
       <c r="L91">
         <f t="shared" si="6"/>
-        <v>30.258485183675845</v>
+        <v>1.2245123196203367</v>
       </c>
       <c r="M91">
         <v>2.22682</v>
@@ -4656,13 +4699,306 @@
       <c r="N91">
         <f t="shared" si="7"/>
         <v>1.523044674208186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92">
+        <v>1.5596099999999999</v>
+      </c>
+      <c r="D92">
+        <v>1.6040700000000001</v>
+      </c>
+      <c r="H92" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92">
+        <v>1.5570200000000001</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>0.16606715781508649</v>
+      </c>
+      <c r="K92">
+        <v>1.58657</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="6"/>
+        <v>1.0909748327691478</v>
+      </c>
+      <c r="M92">
+        <v>2.30925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93">
+        <v>1.6022099999999999</v>
+      </c>
+      <c r="D93">
+        <v>1.57311</v>
+      </c>
+      <c r="H93" t="s">
+        <v>202</v>
+      </c>
+      <c r="I93">
+        <v>1.5931999999999999</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>0.56234825647074738</v>
+      </c>
+      <c r="K93">
+        <v>1.56802</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>0.32356287862896044</v>
+      </c>
+      <c r="M93">
+        <v>2.1660300000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94">
+        <v>1.78542</v>
+      </c>
+      <c r="D94">
+        <v>1.77423</v>
+      </c>
+      <c r="H94" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94">
+        <v>1.7774000000000001</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>0.44919402717567386</v>
+      </c>
+      <c r="K94">
+        <v>1.75044</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="6"/>
+        <v>1.3408633604436841</v>
+      </c>
+      <c r="M94">
+        <v>2.2547700000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95">
+        <v>1.6851100000000001</v>
+      </c>
+      <c r="D95">
+        <v>1.69347</v>
+      </c>
+      <c r="H95" t="s">
+        <v>204</v>
+      </c>
+      <c r="I95">
+        <v>1.6644099999999999</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>1.228406454178075</v>
+      </c>
+      <c r="K95">
+        <v>1.67157</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="6"/>
+        <v>1.2932027139541904</v>
+      </c>
+      <c r="M95">
+        <v>2.1020599999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96">
+        <v>1.6522699999999999</v>
+      </c>
+      <c r="D96">
+        <v>1.6760699999999999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96">
+        <v>1.6358299999999999</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>0.99499476477815441</v>
+      </c>
+      <c r="K96">
+        <v>1.66584</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="6"/>
+        <v>0.6103563693640458</v>
+      </c>
+      <c r="M96">
+        <v>2.0727000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97">
+        <v>1.6535899999999999</v>
+      </c>
+      <c r="D97">
+        <v>1.6825699999999999</v>
+      </c>
+      <c r="H97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97">
+        <v>1.6343099999999999</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>1.1659480282294865</v>
+      </c>
+      <c r="K97">
+        <v>1.6653199999999999</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="6"/>
+        <v>1.0252173758001146</v>
+      </c>
+      <c r="M97">
+        <v>2.0174099999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98">
+        <v>2.0684499999999999</v>
+      </c>
+      <c r="D98">
+        <v>1.9898400000000001</v>
+      </c>
+      <c r="H98" t="s">
+        <v>207</v>
+      </c>
+      <c r="I98">
+        <v>2.0352899999999998</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>1.6031327805844997</v>
+      </c>
+      <c r="K98">
+        <v>1.95756</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="6"/>
+        <v>1.6222409841997389</v>
+      </c>
+      <c r="M98">
+        <v>2.3503599999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99">
+        <v>1.8095699999999999</v>
+      </c>
+      <c r="D99">
+        <v>1.87191</v>
+      </c>
+      <c r="H99" t="s">
+        <v>208</v>
+      </c>
+      <c r="I99">
+        <v>1.78396</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>1.4152533474803359</v>
+      </c>
+      <c r="K99">
+        <v>1.8674599999999999</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
+        <v>0.2377251043052318</v>
+      </c>
+      <c r="M99">
+        <v>2.2375500000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100">
+        <v>1.8609500000000001</v>
+      </c>
+      <c r="D100">
+        <v>1.8499300000000001</v>
+      </c>
+      <c r="H100" t="s">
+        <v>209</v>
+      </c>
+      <c r="I100">
+        <v>1.8381799999999999</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>1.2235686074316976</v>
+      </c>
+      <c r="K100">
+        <v>1.8372599999999999</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="6"/>
+        <v>0.68489077965113176</v>
+      </c>
+      <c r="M100">
+        <v>2.2508599999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <f t="array" ref="J101">AVERAGE(ABS(J2:J100))</f>
+        <v>0.5800846799979813</v>
+      </c>
+      <c r="L101">
+        <f t="array" ref="L101">AVERAGE(ABS(L2:L100))</f>
+        <v>0.56953200119497083</v>
+      </c>
+      <c r="N101">
+        <f t="array" ref="N101">AVERAGE(ABS(N2:N100))</f>
+        <v>0.65733583500253878</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E91">
     <sortCondition ref="A2:A91"/>
   </sortState>
-  <conditionalFormatting sqref="L2:L1048576">
+  <conditionalFormatting sqref="L2:L100 L102:L1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4672,7 +5008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J1048576 K101:N101">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4682,7 +5018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N1048576">
+  <conditionalFormatting sqref="N2:N100 N102:N1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4721,7 +5057,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
